--- a/Fragenkatalog_SE.xlsx
+++ b/Fragenkatalog_SE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Fragen</t>
   </si>
@@ -63,6 +63,44 @@
   </si>
   <si>
     <t xml:space="preserve">Sollen alle Veränderungen der Patientendaten dokumentiert werden (Arbeitsrecht) </t>
+  </si>
+  <si>
+    <t>Der Ansprechpartner im Krankenhaus ist Herr Friemert, welcher alle möglichen Rollen spielt</t>
+  </si>
+  <si>
+    <t>Eine Chipkarte ist personengebunden. Jeder User hat einen Namen und ein Passwort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es werden </t>
+  </si>
+  <si>
+    <t>Es gibt gewünschte Hardware, welch im Labor F226 abgeholt werden kann.  
+1.RFDI Chip 
+2.Arduino</t>
+  </si>
+  <si>
+    <t>Es gibt aktuell keine bestehende Software, welche als Vorlage dienen könnte.</t>
+  </si>
+  <si>
+    <t>Der Ausdruck soll automatisch generiert werden und dann als PDF an einen Netzwerkdrucker 
+geschickt werden können</t>
+  </si>
+  <si>
+    <t>Der Zugriff auf den PC ist nicht beschränkt.
+Die Software hingegen erkennt verschiedene Rollen anhand des Nuternamens und des Passworts.
+Jede Person hat nur eine Rolle. BSP: Ein Techniker darf kein Zugriff auf Krankheitsbestimmte Daten haben.</t>
+  </si>
+  <si>
+    <t>Jede Rolle der Ansprechpartner wird von Herrn Friemert übernommen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ein Patient wird behadelt
+2. Artzt gibt an ob es sich um Anamnese oder Untersuchung etc handelt
+3. Artzt gibt zu dem gewählten Thema bestimmte Informationen an
+4. Die Eintragung kann auch zum Beispiel vom Pflegepersonal übernommen werden.
+5. Die Anmeldung mit Benutzername und Passwort dient der Dokumentation im Fall 4). 
+6. Nur Ärtzte dürfen eine Diagnose äußern und Medikamente verschreiben.
+</t>
   </si>
 </sst>
 </file>
@@ -98,8 +136,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -383,10 +430,14 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="81" customWidth="1"/>
+    <col min="2" max="2" width="80.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -401,49 +452,76 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
